--- a/output/15-general.xlsx
+++ b/output/15-general.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="eggers_test" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1436,4 +1437,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>722</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>381</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/15-general.xlsx
+++ b/output/15-general.xlsx
@@ -1441,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1455,10 +1455,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>revised_general_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -1470,24 +1475,466 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B2">
-        <v>722</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>257</v>
+      </c>
+      <c r="D2">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>381</v>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>114</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>124</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
